--- a/II.ETAPA_Soupis_provedených_prací_11.19..xlsx
+++ b/II.ETAPA_Soupis_provedených_prací_11.19..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838A8B8F-C65B-414A-8E0C-31AF89B32340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161DB0DB-1AC4-4B18-84EA-357BD16BDAA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{D5A977E6-9ABC-4101-B64E-5E201F264897}"/>
   </bookViews>
@@ -3018,32 +3018,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="8" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="8" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="8" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="8" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -3069,6 +3147,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3131,113 +3213,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="8" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="8" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="8" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="8" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3247,6 +3244,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10299,7 +10299,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10373,10 +10373,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="108" t="s">
         <v>674</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="109">
         <f>rozpočet!H292</f>
         <v>187926.52095359997</v>
       </c>
@@ -10423,15 +10423,15 @@
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="25"/>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="177" t="s">
         <v>628</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
       <c r="K1" s="27"/>
@@ -10458,18 +10458,18 @@
       <c r="B3" s="29" t="s">
         <v>629</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="178" t="s">
         <v>630</v>
       </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
       <c r="F3" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="G3" s="112">
+      <c r="G3" s="173">
         <v>28714989</v>
       </c>
-      <c r="H3" s="112"/>
+      <c r="H3" s="173"/>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="27"/>
@@ -10479,16 +10479,16 @@
     <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
       <c r="F4" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="G4" s="112" t="s">
+      <c r="G4" s="173" t="s">
         <v>633</v>
       </c>
-      <c r="H4" s="112"/>
+      <c r="H4" s="173"/>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
       <c r="K4" s="27"/>
@@ -10498,18 +10498,18 @@
     <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="173" t="s">
         <v>634</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
       <c r="F5" s="29" t="s">
         <v>635</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="172" t="s">
         <v>636</v>
       </c>
-      <c r="H5" s="111"/>
+      <c r="H5" s="172"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="27"/>
@@ -10519,18 +10519,18 @@
     <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="172" t="s">
         <v>637</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
       <c r="F6" s="29" t="s">
         <v>638</v>
       </c>
-      <c r="G6" s="112" t="s">
+      <c r="G6" s="173" t="s">
         <v>639</v>
       </c>
-      <c r="H6" s="112"/>
+      <c r="H6" s="173"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="27"/>
@@ -10557,18 +10557,18 @@
       <c r="B8" s="29" t="s">
         <v>640</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="174" t="s">
         <v>661</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
       <c r="F8" s="29" t="s">
         <v>641</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="153" t="s">
         <v>662</v>
       </c>
-      <c r="H8" s="114"/>
+      <c r="H8" s="153"/>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="27"/>
@@ -10578,16 +10578,16 @@
     <row r="9" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
       <c r="F9" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="153" t="s">
         <v>663</v>
       </c>
-      <c r="H9" s="114"/>
+      <c r="H9" s="153"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
       <c r="K9" s="27"/>
@@ -10597,18 +10597,18 @@
     <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="175" t="s">
         <v>634</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
       <c r="F10" s="29" t="s">
         <v>635</v>
       </c>
-      <c r="G10" s="116" t="s">
+      <c r="G10" s="176" t="s">
         <v>665</v>
       </c>
-      <c r="H10" s="116"/>
+      <c r="H10" s="176"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="27"/>
@@ -10618,18 +10618,18 @@
     <row r="11" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="152" t="s">
         <v>637</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
       <c r="F11" s="29" t="s">
         <v>638</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="153" t="s">
         <v>664</v>
       </c>
-      <c r="H11" s="114"/>
+      <c r="H11" s="153"/>
       <c r="I11" s="26"/>
       <c r="J11" s="32"/>
       <c r="K11" s="27"/>
@@ -10653,17 +10653,17 @@
     </row>
     <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="154" t="s">
         <v>643</v>
       </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="130" t="s">
+      <c r="C13" s="155"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="157" t="s">
         <v>668</v>
       </c>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="132"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="159"/>
       <c r="I13" s="26"/>
       <c r="J13" s="32"/>
       <c r="K13" s="27"/>
@@ -10672,17 +10672,17 @@
     </row>
     <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="160" t="s">
         <v>644</v>
       </c>
-      <c r="C14" s="134"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="139" t="s">
+      <c r="C14" s="161"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="166" t="s">
         <v>684</v>
       </c>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="141"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="168"/>
       <c r="I14" s="26"/>
       <c r="J14" s="32"/>
       <c r="K14" s="27"/>
@@ -10693,13 +10693,13 @@
     </row>
     <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
-      <c r="B15" s="136"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="144"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="171"/>
       <c r="I15" s="26"/>
       <c r="J15" s="32"/>
       <c r="K15" s="27"/>
@@ -10723,17 +10723,17 @@
     </row>
     <row r="17" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="37"/>
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="145" t="s">
         <v>645</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="121">
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="147">
         <f>I43</f>
         <v>5857533.0199026112</v>
       </c>
-      <c r="G17" s="121"/>
+      <c r="G17" s="147"/>
       <c r="H17" s="27" t="s">
         <v>646</v>
       </c>
@@ -10745,17 +10745,17 @@
     </row>
     <row r="18" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="148" t="s">
         <v>647</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123">
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="149">
         <f>F43</f>
         <v>1042466.9770480482</v>
       </c>
-      <c r="G18" s="123"/>
+      <c r="G18" s="149"/>
       <c r="H18" s="27" t="s">
         <v>646</v>
       </c>
@@ -10767,17 +10767,17 @@
     </row>
     <row r="19" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="150" t="s">
         <v>648</v>
       </c>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="125">
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="151">
         <f>F18+F17</f>
         <v>6899999.996950659</v>
       </c>
-      <c r="G19" s="125"/>
+      <c r="G19" s="151"/>
       <c r="H19" s="27" t="s">
         <v>646</v>
       </c>
@@ -10804,469 +10804,469 @@
     </row>
     <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="39"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="156" t="s">
+      <c r="B21" s="137"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="140" t="s">
         <v>647</v>
       </c>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="157" t="s">
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="141" t="s">
         <v>649</v>
       </c>
-      <c r="J21" s="158"/>
-      <c r="K21" s="157" t="s">
+      <c r="J21" s="142"/>
+      <c r="K21" s="141" t="s">
         <v>650</v>
       </c>
-      <c r="L21" s="158"/>
-      <c r="M21" s="159"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="143"/>
     </row>
     <row r="22" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="148">
-        <v>0</v>
-      </c>
-      <c r="G22" s="149"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="151">
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="132">
+        <v>0</v>
+      </c>
+      <c r="G22" s="133"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135">
         <f>rozpočet!AA7</f>
         <v>94260.12</v>
       </c>
-      <c r="J22" s="152"/>
-      <c r="K22" s="151">
-        <v>0</v>
-      </c>
-      <c r="L22" s="152"/>
-      <c r="M22" s="160"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="135">
+        <v>0</v>
+      </c>
+      <c r="L22" s="136"/>
+      <c r="M22" s="144"/>
     </row>
     <row r="23" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="152"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="136"/>
       <c r="M23" s="44"/>
     </row>
     <row r="24" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39"/>
-      <c r="B24" s="145" t="s">
+      <c r="B24" s="129" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="152"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="136"/>
       <c r="M24" s="44"/>
     </row>
     <row r="25" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="148">
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="132">
         <f>rozpočet!Y13</f>
         <v>1042466.9770480482</v>
       </c>
-      <c r="G25" s="149"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="151">
+      <c r="G25" s="133"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="135">
         <f>rozpočet!AA13</f>
         <v>2322582.7444447516</v>
       </c>
-      <c r="J25" s="152"/>
-      <c r="K25" s="151">
-        <v>0</v>
-      </c>
-      <c r="L25" s="152"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="135">
+        <v>0</v>
+      </c>
+      <c r="L25" s="136"/>
       <c r="M25" s="44"/>
     </row>
     <row r="26" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="39"/>
-      <c r="B26" s="145" t="s">
+      <c r="B26" s="129" t="s">
         <v>278</v>
       </c>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="148">
-        <v>0</v>
-      </c>
-      <c r="G26" s="149"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="151">
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="132">
+        <v>0</v>
+      </c>
+      <c r="G26" s="133"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="135">
         <f>rozpočet!AA62</f>
         <v>566639.91945000004</v>
       </c>
-      <c r="J26" s="152"/>
-      <c r="K26" s="151">
-        <v>0</v>
-      </c>
-      <c r="L26" s="152"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="135">
+        <v>0</v>
+      </c>
+      <c r="L26" s="136"/>
       <c r="M26" s="44"/>
     </row>
     <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="39"/>
-      <c r="B27" s="145" t="s">
+      <c r="B27" s="129" t="s">
         <v>400</v>
       </c>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="148">
-        <v>0</v>
-      </c>
-      <c r="G27" s="149"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="151">
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="132">
+        <v>0</v>
+      </c>
+      <c r="G27" s="133"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="135">
         <f>rozpočet!AA92</f>
         <v>528130.38265728008</v>
       </c>
-      <c r="J27" s="152"/>
-      <c r="K27" s="151">
-        <v>0</v>
-      </c>
-      <c r="L27" s="152"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="135">
+        <v>0</v>
+      </c>
+      <c r="L27" s="136"/>
       <c r="M27" s="44"/>
     </row>
     <row r="28" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="129" t="s">
         <v>465</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="148">
-        <v>0</v>
-      </c>
-      <c r="G28" s="149"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="151">
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="132">
+        <v>0</v>
+      </c>
+      <c r="G28" s="133"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="135">
         <f>rozpočet!AA143</f>
         <v>841181.73985611997</v>
       </c>
-      <c r="J28" s="152"/>
-      <c r="K28" s="151">
-        <v>0</v>
-      </c>
-      <c r="L28" s="152"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="135">
+        <v>0</v>
+      </c>
+      <c r="L28" s="136"/>
       <c r="M28" s="44"/>
     </row>
     <row r="29" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39"/>
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="129" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="152"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="136"/>
       <c r="M29" s="44"/>
     </row>
     <row r="30" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39"/>
-      <c r="B30" s="145" t="s">
+      <c r="B30" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="152"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="136"/>
       <c r="M30" s="44"/>
     </row>
     <row r="31" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39"/>
-      <c r="B31" s="145" t="s">
+      <c r="B31" s="129" t="s">
         <v>278</v>
       </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="152"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="136"/>
       <c r="M31" s="44"/>
     </row>
     <row r="32" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39"/>
-      <c r="B32" s="145" t="s">
+      <c r="B32" s="129" t="s">
         <v>302</v>
       </c>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="152"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="136"/>
       <c r="M32" s="44"/>
     </row>
     <row r="33" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="39"/>
-      <c r="B33" s="145" t="s">
+      <c r="B33" s="129" t="s">
         <v>329</v>
       </c>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="152"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="136"/>
       <c r="M33" s="44"/>
     </row>
     <row r="34" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39"/>
-      <c r="B34" s="145" t="s">
+      <c r="B34" s="129" t="s">
         <v>365</v>
       </c>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="152"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="135"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="135"/>
+      <c r="L34" s="136"/>
       <c r="M34" s="44"/>
     </row>
     <row r="35" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="39"/>
-      <c r="B35" s="145" t="s">
+      <c r="B35" s="129" t="s">
         <v>525</v>
       </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="148">
-        <v>0</v>
-      </c>
-      <c r="G35" s="149"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="151">
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="132">
+        <v>0</v>
+      </c>
+      <c r="G35" s="133"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="135">
         <f>rozpočet!AA210</f>
         <v>1004482.6516569001</v>
       </c>
-      <c r="J35" s="152"/>
-      <c r="K35" s="151">
-        <v>0</v>
-      </c>
-      <c r="L35" s="152"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="135">
+        <v>0</v>
+      </c>
+      <c r="L35" s="136"/>
       <c r="M35" s="44"/>
     </row>
     <row r="36" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="39"/>
-      <c r="B36" s="145" t="s">
+      <c r="B36" s="129" t="s">
         <v>572</v>
       </c>
-      <c r="C36" s="146"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="148">
-        <v>0</v>
-      </c>
-      <c r="G36" s="149"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="151">
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="132">
+        <v>0</v>
+      </c>
+      <c r="G36" s="133"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="135">
         <f>rozpočet!AA271</f>
         <v>312328.94088396005</v>
       </c>
-      <c r="J36" s="152"/>
-      <c r="K36" s="151">
-        <v>0</v>
-      </c>
-      <c r="L36" s="152"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="135">
+        <v>0</v>
+      </c>
+      <c r="L36" s="136"/>
       <c r="M36" s="44"/>
     </row>
     <row r="37" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="39"/>
-      <c r="B37" s="145" t="s">
+      <c r="B37" s="129" t="s">
         <v>587</v>
       </c>
-      <c r="C37" s="146"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="148">
-        <v>0</v>
-      </c>
-      <c r="G37" s="149"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="151">
+      <c r="C37" s="130"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="132">
+        <v>0</v>
+      </c>
+      <c r="G37" s="133"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="135">
         <f>rozpočet!AA292</f>
         <v>187926.52095359997</v>
       </c>
-      <c r="J37" s="152"/>
-      <c r="K37" s="151">
-        <v>0</v>
-      </c>
-      <c r="L37" s="152"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="135">
+        <v>0</v>
+      </c>
+      <c r="L37" s="136"/>
       <c r="M37" s="44"/>
     </row>
     <row r="38" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="39"/>
-      <c r="B38" s="145"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="152"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="152"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="135"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="135"/>
+      <c r="L38" s="136"/>
       <c r="M38" s="44"/>
     </row>
     <row r="39" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="39"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="152"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="135"/>
+      <c r="J39" s="136"/>
+      <c r="K39" s="135"/>
+      <c r="L39" s="136"/>
       <c r="M39" s="44"/>
     </row>
     <row r="40" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="39"/>
-      <c r="B40" s="145"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="152"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="152"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="136"/>
+      <c r="K40" s="135"/>
+      <c r="L40" s="136"/>
       <c r="M40" s="44"/>
     </row>
     <row r="41" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="39"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="152"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="152"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="136"/>
       <c r="M41" s="44"/>
     </row>
     <row r="42" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="39"/>
-      <c r="B42" s="153" t="s">
+      <c r="B42" s="137" t="s">
         <v>614</v>
       </c>
-      <c r="C42" s="154"/>
-      <c r="D42" s="154"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="148">
-        <v>0</v>
-      </c>
-      <c r="G42" s="149"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="151">
-        <v>0</v>
-      </c>
-      <c r="J42" s="152"/>
-      <c r="K42" s="151">
-        <v>0</v>
-      </c>
-      <c r="L42" s="152"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="132">
+        <v>0</v>
+      </c>
+      <c r="G42" s="133"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="135">
+        <v>0</v>
+      </c>
+      <c r="J42" s="136"/>
+      <c r="K42" s="135">
+        <v>0</v>
+      </c>
+      <c r="L42" s="136"/>
       <c r="M42" s="44"/>
     </row>
     <row r="43" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="39"/>
-      <c r="B43" s="161" t="s">
+      <c r="B43" s="116" t="s">
         <v>651</v>
       </c>
-      <c r="C43" s="162"/>
-      <c r="D43" s="162"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="164">
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="119">
         <f>SUM(F22:H42)</f>
         <v>1042466.9770480482</v>
       </c>
-      <c r="G43" s="165"/>
-      <c r="H43" s="166"/>
-      <c r="I43" s="167">
+      <c r="G43" s="120"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="122">
         <f>SUM(I22:J42)</f>
         <v>5857533.0199026112</v>
       </c>
-      <c r="J43" s="168"/>
-      <c r="K43" s="167">
+      <c r="J43" s="123"/>
+      <c r="K43" s="122">
         <f>SUM(K22:M37)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="168"/>
-      <c r="M43" s="169"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="124"/>
     </row>
     <row r="44" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="39"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="171"/>
-      <c r="D44" s="171"/>
-      <c r="E44" s="171"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
       <c r="F44" s="45"/>
       <c r="G44" s="45"/>
       <c r="H44" s="27"/>
@@ -11278,17 +11278,17 @@
     </row>
     <row r="45" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
-      <c r="B45" s="172" t="s">
+      <c r="B45" s="127" t="s">
         <v>652</v>
       </c>
-      <c r="C45" s="172"/>
-      <c r="D45" s="172"/>
-      <c r="E45" s="172"/>
-      <c r="F45" s="173">
+      <c r="C45" s="127"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="128">
         <f>rozpočet!H6</f>
         <v>6899999.9969506599</v>
       </c>
-      <c r="G45" s="173"/>
+      <c r="G45" s="128"/>
       <c r="H45" s="27" t="s">
         <v>646</v>
       </c>
@@ -11300,17 +11300,17 @@
     </row>
     <row r="46" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
-      <c r="B46" s="176" t="s">
+      <c r="B46" s="113" t="s">
         <v>653</v>
       </c>
-      <c r="C46" s="176"/>
-      <c r="D46" s="176"/>
-      <c r="E46" s="176"/>
-      <c r="F46" s="177">
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="114">
         <f>K43</f>
         <v>0</v>
       </c>
-      <c r="G46" s="177"/>
+      <c r="G46" s="114"/>
       <c r="H46" s="27" t="s">
         <v>646</v>
       </c>
@@ -11358,13 +11358,13 @@
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="27"/>
-      <c r="D49" s="178" t="s">
+      <c r="D49" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="E49" s="178"/>
-      <c r="F49" s="178"/>
-      <c r="G49" s="178"/>
-      <c r="H49" s="178"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="115"/>
       <c r="I49" s="26"/>
       <c r="J49" s="26"/>
       <c r="K49" s="27"/>
@@ -11420,8 +11420,8 @@
     </row>
     <row r="53" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="60"/>
-      <c r="B53" s="174"/>
-      <c r="C53" s="174"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="111"/>
       <c r="D53" s="61"/>
       <c r="E53" s="62"/>
       <c r="F53" s="63"/>
@@ -11437,10 +11437,10 @@
       <c r="A54" s="60" t="s">
         <v>657</v>
       </c>
-      <c r="B54" s="174" t="s">
+      <c r="B54" s="111" t="s">
         <v>666</v>
       </c>
-      <c r="C54" s="174"/>
+      <c r="C54" s="111"/>
       <c r="D54" s="61" t="s">
         <v>658</v>
       </c>
@@ -11522,10 +11522,10 @@
       <c r="C59" s="36"/>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
-      <c r="F59" s="175" t="s">
+      <c r="F59" s="112" t="s">
         <v>660</v>
       </c>
-      <c r="G59" s="175"/>
+      <c r="G59" s="112"/>
       <c r="H59" s="25"/>
       <c r="I59" s="26"/>
       <c r="J59" s="26"/>
@@ -11535,8 +11535,8 @@
     </row>
     <row r="60" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="60"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="174"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="111"/>
       <c r="D60" s="61"/>
       <c r="E60" s="64"/>
       <c r="F60" s="60"/>
@@ -11552,11 +11552,11 @@
       <c r="A61" s="60" t="s">
         <v>657</v>
       </c>
-      <c r="B61" s="174" t="str">
+      <c r="B61" s="111" t="str">
         <f>B54</f>
         <v>Lovosicích</v>
       </c>
-      <c r="C61" s="174"/>
+      <c r="C61" s="111"/>
       <c r="D61" s="61" t="s">
         <v>658</v>
       </c>
@@ -11623,10 +11623,10 @@
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
-      <c r="F65" s="175" t="s">
+      <c r="F65" s="112" t="s">
         <v>660</v>
       </c>
-      <c r="G65" s="175"/>
+      <c r="G65" s="112"/>
       <c r="H65" s="26"/>
       <c r="I65" s="26"/>
       <c r="J65" s="26"/>
@@ -11648,30 +11648,95 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="I39:J39"/>
@@ -11688,95 +11753,30 @@
     <mergeCell ref="F38:H38"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="B14:D15"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="F59:G59"/>
   </mergeCells>
   <conditionalFormatting sqref="B61">
     <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Město">
@@ -11975,99 +11975,99 @@
       <c r="AC2" s="14"/>
     </row>
     <row r="3" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="179" t="s">
+      <c r="C3" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="179" t="s">
+      <c r="D3" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="179" t="s">
+      <c r="E3" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="179" t="s">
+      <c r="F3" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="179" t="s">
+      <c r="G3" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="179"/>
-      <c r="J3" s="180" t="s">
+      <c r="H3" s="182"/>
+      <c r="J3" s="179" t="s">
         <v>680</v>
       </c>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="181"/>
-      <c r="Q3" s="180" t="s">
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="Q3" s="179" t="s">
         <v>680</v>
       </c>
-      <c r="R3" s="181"/>
-      <c r="S3" s="181"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="181"/>
-      <c r="X3" s="180" t="s">
+      <c r="R3" s="180"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
+      <c r="V3" s="180"/>
+      <c r="X3" s="179" t="s">
         <v>680</v>
       </c>
-      <c r="Y3" s="181"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="181"/>
-      <c r="AC3" s="181"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="180"/>
+      <c r="AB3" s="180"/>
+      <c r="AC3" s="180"/>
     </row>
     <row r="4" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="179"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
+      <c r="A4" s="182"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
       <c r="G4" s="76" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="180" t="s">
+      <c r="J4" s="179" t="s">
         <v>683</v>
       </c>
-      <c r="K4" s="181"/>
-      <c r="L4" s="180" t="s">
+      <c r="K4" s="180"/>
+      <c r="L4" s="179" t="s">
         <v>626</v>
       </c>
-      <c r="M4" s="181"/>
-      <c r="N4" s="182" t="s">
+      <c r="M4" s="180"/>
+      <c r="N4" s="181" t="s">
         <v>627</v>
       </c>
       <c r="O4" s="110"/>
-      <c r="Q4" s="180" t="s">
+      <c r="Q4" s="179" t="s">
         <v>685</v>
       </c>
-      <c r="R4" s="181"/>
-      <c r="S4" s="180" t="s">
+      <c r="R4" s="180"/>
+      <c r="S4" s="179" t="s">
         <v>626</v>
       </c>
-      <c r="T4" s="181"/>
-      <c r="U4" s="182" t="s">
+      <c r="T4" s="180"/>
+      <c r="U4" s="181" t="s">
         <v>627</v>
       </c>
       <c r="V4" s="110"/>
-      <c r="X4" s="180" t="s">
+      <c r="X4" s="179" t="s">
         <v>686</v>
       </c>
-      <c r="Y4" s="181"/>
-      <c r="Z4" s="180" t="s">
+      <c r="Y4" s="180"/>
+      <c r="Z4" s="179" t="s">
         <v>626</v>
       </c>
-      <c r="AA4" s="181"/>
-      <c r="AB4" s="182" t="s">
+      <c r="AA4" s="180"/>
+      <c r="AB4" s="181" t="s">
         <v>627</v>
       </c>
       <c r="AC4" s="110"/>
@@ -39053,6 +39053,17 @@
   </sheetData>
   <sheetProtection formatColumns="0"/>
   <mergeCells count="19">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="X3:AC3"/>
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="Z4:AA4"/>
@@ -39061,17 +39072,6 @@
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <conditionalFormatting sqref="O1:O2">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
